--- a/python/script/Aiops/test4.xlsx
+++ b/python/script/Aiops/test4.xlsx
@@ -797,7 +797,7 @@
     <col min="4" max="4" style="3" width="84.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
